--- a/Data Files/accounts.xlsx
+++ b/Data Files/accounts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>cclol</t>
+  </si>
+  <si>
+    <t>jeanbon@free.fr</t>
+  </si>
+  <si>
+    <t>boiofyee</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,10 +471,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -476,10 +482,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -487,23 +493,12 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -515,7 +510,6 @@
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
